--- a/input-data/quietness_score_maker.xlsx
+++ b/input-data/quietness_score_maker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="38">
   <si>
     <t>highway</t>
   </si>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2882,9 +2882,18 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D130" t="e">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130">
         <f>Generator!$D130</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4881,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C400"/>
+    <sheetView topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9266,37 +9275,37 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" t="str">
         <f>quietness!A130</f>
-        <v>0</v>
-      </c>
-      <c r="B130">
+        <v>road</v>
+      </c>
+      <c r="B130" t="str">
         <f>quietness!B130</f>
-        <v>0</v>
-      </c>
-      <c r="C130">
+        <v>share_busway</v>
+      </c>
+      <c r="C130" t="str">
         <f>quietness!C130</f>
-        <v>0</v>
-      </c>
-      <c r="D130" t="e">
+        <v>no</v>
+      </c>
+      <c r="D130">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E130" t="e">
+        <v>75</v>
+      </c>
+      <c r="E130">
         <f>VLOOKUP($A130,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F130" t="e">
+        <v>70</v>
+      </c>
+      <c r="F130">
         <f>VLOOKUP($B130,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G130" t="e">
+        <v>5</v>
+      </c>
+      <c r="G130">
         <f>VLOOKUP($C130,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H130" t="e">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">

--- a/input-data/quietness_score_maker.xlsx
+++ b/input-data/quietness_score_maker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="38">
   <si>
     <t>highway</t>
   </si>
@@ -935,7 +935,7 @@
   <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2897,15 +2897,33 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D131" t="e">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131">
         <f>Generator!$D131</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D132" t="e">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132">
         <f>Generator!$D132</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4890,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H400"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9309,71 +9327,71 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" t="str">
         <f>quietness!A131</f>
-        <v>0</v>
-      </c>
-      <c r="B131">
+        <v>living_street</v>
+      </c>
+      <c r="B131" t="str">
         <f>quietness!B131</f>
-        <v>0</v>
-      </c>
-      <c r="C131">
+        <v>share_busway</v>
+      </c>
+      <c r="C131" t="str">
         <f>quietness!C131</f>
-        <v>0</v>
-      </c>
-      <c r="D131" t="e">
+        <v>lane</v>
+      </c>
+      <c r="D131">
         <f t="shared" ref="D131:D194" si="4">IF($H131&gt;100,100,$H131)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E131" t="e">
+        <v>95</v>
+      </c>
+      <c r="E131">
         <f>VLOOKUP($A131,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F131" t="e">
+        <v>80</v>
+      </c>
+      <c r="F131">
         <f>VLOOKUP($B131,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G131" t="e">
+        <v>5</v>
+      </c>
+      <c r="G131">
         <f>VLOOKUP($C131,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H131" t="e">
+        <v>10</v>
+      </c>
+      <c r="H131">
         <f t="shared" ref="H131:H194" si="5">SUM(E131:G131)</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" t="str">
         <f>quietness!A132</f>
-        <v>0</v>
-      </c>
-      <c r="B132">
+        <v>trunk</v>
+      </c>
+      <c r="B132" t="str">
         <f>quietness!B132</f>
-        <v>0</v>
-      </c>
-      <c r="C132">
+        <v>track</v>
+      </c>
+      <c r="C132" t="str">
         <f>quietness!C132</f>
-        <v>0</v>
-      </c>
-      <c r="D132" t="e">
+        <v>lane</v>
+      </c>
+      <c r="D132">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E132" t="e">
+        <v>50</v>
+      </c>
+      <c r="E132">
         <f>VLOOKUP($A132,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" t="e">
+        <v>20</v>
+      </c>
+      <c r="F132">
         <f>VLOOKUP($B132,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G132" t="e">
+        <v>20</v>
+      </c>
+      <c r="G132">
         <f>VLOOKUP($C132,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H132" t="e">
+        <v>10</v>
+      </c>
+      <c r="H132">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">

--- a/input-data/quietness_score_maker.xlsx
+++ b/input-data/quietness_score_maker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="38">
   <si>
     <t>highway</t>
   </si>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2927,168 +2927,285 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D133" t="e">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133">
         <f>Generator!$D133</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D134" t="e">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134">
         <f>Generator!$D134</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D135" t="e">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135">
         <f>Generator!$D135</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D136" t="e">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136">
         <f>Generator!$D136</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D137" t="e">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137">
         <f>Generator!$D137</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D138" t="e">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138">
         <f>Generator!$D138</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D139" t="e">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139">
         <f>Generator!$D139</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D140" t="e">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140">
         <f>Generator!$D140</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D141" t="e">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141">
         <f>Generator!$D141</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D142" t="e">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142">
         <f>Generator!$D142</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D143" t="e">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143">
         <f>Generator!$D143</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D144" t="e">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144">
         <f>Generator!$D144</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D145" t="e">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145">
         <f>Generator!$D145</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D146" t="e">
         <f>Generator!$D146</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D147" t="e">
         <f>Generator!$D147</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D148" t="e">
         <f>Generator!$D148</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D149" t="e">
         <f>Generator!$D149</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D150" t="e">
         <f>Generator!$D150</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D151" t="e">
         <f>Generator!$D151</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D152" t="e">
         <f>Generator!$D152</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D153" t="e">
         <f>Generator!$D153</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D154" t="e">
         <f>Generator!$D154</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D155" t="e">
         <f>Generator!$D155</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D156" t="e">
         <f>Generator!$D156</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D157" t="e">
         <f>Generator!$D157</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D158" t="e">
         <f>Generator!$D158</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D159" t="e">
         <f>Generator!$D159</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D160" t="e">
         <f>Generator!$D160</f>
         <v>#N/A</v>
@@ -9395,445 +9512,445 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" t="str">
         <f>quietness!A133</f>
-        <v>0</v>
-      </c>
-      <c r="B133">
+        <v>secondary_link</v>
+      </c>
+      <c r="B133" t="str">
         <f>quietness!B133</f>
-        <v>0</v>
-      </c>
-      <c r="C133">
+        <v>lane</v>
+      </c>
+      <c r="C133" t="str">
         <f>quietness!C133</f>
-        <v>0</v>
-      </c>
-      <c r="D133" t="e">
+        <v>lane</v>
+      </c>
+      <c r="D133">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E133" t="e">
+        <v>70</v>
+      </c>
+      <c r="E133">
         <f>VLOOKUP($A133,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" t="e">
+        <v>50</v>
+      </c>
+      <c r="F133">
         <f>VLOOKUP($B133,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G133" t="e">
+        <v>10</v>
+      </c>
+      <c r="G133">
         <f>VLOOKUP($C133,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H133" t="e">
+        <v>10</v>
+      </c>
+      <c r="H133">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" t="str">
         <f>quietness!A134</f>
-        <v>0</v>
-      </c>
-      <c r="B134">
+        <v>living_street</v>
+      </c>
+      <c r="B134" t="str">
         <f>quietness!B134</f>
-        <v>0</v>
-      </c>
-      <c r="C134">
+        <v>track</v>
+      </c>
+      <c r="C134" t="str">
         <f>quietness!C134</f>
-        <v>0</v>
-      </c>
-      <c r="D134" t="e">
+        <v>track</v>
+      </c>
+      <c r="D134">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E134" t="e">
+        <v>100</v>
+      </c>
+      <c r="E134">
         <f>VLOOKUP($A134,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F134" t="e">
+        <v>80</v>
+      </c>
+      <c r="F134">
         <f>VLOOKUP($B134,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G134" t="e">
+        <v>20</v>
+      </c>
+      <c r="G134">
         <f>VLOOKUP($C134,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H134" t="e">
+        <v>20</v>
+      </c>
+      <c r="H134">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" t="str">
         <f>quietness!A135</f>
-        <v>0</v>
-      </c>
-      <c r="B135">
+        <v>tertiary</v>
+      </c>
+      <c r="B135" t="str">
         <f>quietness!B135</f>
-        <v>0</v>
-      </c>
-      <c r="C135">
+        <v>share_busway</v>
+      </c>
+      <c r="C135" t="str">
         <f>quietness!C135</f>
-        <v>0</v>
-      </c>
-      <c r="D135" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D135">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E135" t="e">
+        <v>70</v>
+      </c>
+      <c r="E135">
         <f>VLOOKUP($A135,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F135" t="e">
+        <v>60</v>
+      </c>
+      <c r="F135">
         <f>VLOOKUP($B135,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G135" t="e">
+        <v>5</v>
+      </c>
+      <c r="G135">
         <f>VLOOKUP($C135,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H135" t="e">
+        <v>5</v>
+      </c>
+      <c r="H135">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" t="str">
         <f>quietness!A136</f>
-        <v>0</v>
-      </c>
-      <c r="B136">
+        <v>secondary_link</v>
+      </c>
+      <c r="B136" t="str">
         <f>quietness!B136</f>
-        <v>0</v>
-      </c>
-      <c r="C136">
+        <v>track</v>
+      </c>
+      <c r="C136" t="str">
         <f>quietness!C136</f>
-        <v>0</v>
-      </c>
-      <c r="D136" t="e">
+        <v>track</v>
+      </c>
+      <c r="D136">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E136" t="e">
+        <v>90</v>
+      </c>
+      <c r="E136">
         <f>VLOOKUP($A136,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F136" t="e">
+        <v>50</v>
+      </c>
+      <c r="F136">
         <f>VLOOKUP($B136,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G136" t="e">
+        <v>20</v>
+      </c>
+      <c r="G136">
         <f>VLOOKUP($C136,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H136" t="e">
+        <v>20</v>
+      </c>
+      <c r="H136">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" t="str">
         <f>quietness!A137</f>
-        <v>0</v>
-      </c>
-      <c r="B137">
+        <v>trunk</v>
+      </c>
+      <c r="B137" t="str">
         <f>quietness!B137</f>
-        <v>0</v>
-      </c>
-      <c r="C137">
+        <v>lane</v>
+      </c>
+      <c r="C137" t="str">
         <f>quietness!C137</f>
-        <v>0</v>
-      </c>
-      <c r="D137" t="e">
+        <v>track</v>
+      </c>
+      <c r="D137">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E137" t="e">
+        <v>50</v>
+      </c>
+      <c r="E137">
         <f>VLOOKUP($A137,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F137" t="e">
+        <v>20</v>
+      </c>
+      <c r="F137">
         <f>VLOOKUP($B137,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G137" t="e">
+        <v>10</v>
+      </c>
+      <c r="G137">
         <f>VLOOKUP($C137,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H137" t="e">
+        <v>20</v>
+      </c>
+      <c r="H137">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" t="str">
         <f>quietness!A138</f>
-        <v>0</v>
-      </c>
-      <c r="B138">
+        <v>unclassified</v>
+      </c>
+      <c r="B138" t="str">
         <f>quietness!B138</f>
-        <v>0</v>
-      </c>
-      <c r="C138">
+        <v>share_busway</v>
+      </c>
+      <c r="C138" t="str">
         <f>quietness!C138</f>
-        <v>0</v>
-      </c>
-      <c r="D138" t="e">
+        <v>track</v>
+      </c>
+      <c r="D138">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E138" t="e">
+        <v>95</v>
+      </c>
+      <c r="E138">
         <f>VLOOKUP($A138,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F138" t="e">
+        <v>70</v>
+      </c>
+      <c r="F138">
         <f>VLOOKUP($B138,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G138" t="e">
+        <v>5</v>
+      </c>
+      <c r="G138">
         <f>VLOOKUP($C138,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H138" t="e">
+        <v>20</v>
+      </c>
+      <c r="H138">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" t="str">
         <f>quietness!A139</f>
-        <v>0</v>
-      </c>
-      <c r="B139">
+        <v>tertiary_link</v>
+      </c>
+      <c r="B139" t="str">
         <f>quietness!B139</f>
-        <v>0</v>
-      </c>
-      <c r="C139">
+        <v>track</v>
+      </c>
+      <c r="C139" t="str">
         <f>quietness!C139</f>
-        <v>0</v>
-      </c>
-      <c r="D139" t="e">
+        <v>track</v>
+      </c>
+      <c r="D139">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E139" t="e">
+        <v>100</v>
+      </c>
+      <c r="E139">
         <f>VLOOKUP($A139,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F139" t="e">
+        <v>60</v>
+      </c>
+      <c r="F139">
         <f>VLOOKUP($B139,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G139" t="e">
+        <v>20</v>
+      </c>
+      <c r="G139">
         <f>VLOOKUP($C139,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H139" t="e">
+        <v>20</v>
+      </c>
+      <c r="H139">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" t="str">
         <f>quietness!A140</f>
-        <v>0</v>
-      </c>
-      <c r="B140">
+        <v>service</v>
+      </c>
+      <c r="B140" t="str">
         <f>quietness!B140</f>
-        <v>0</v>
-      </c>
-      <c r="C140">
+        <v>share_busway</v>
+      </c>
+      <c r="C140" t="str">
         <f>quietness!C140</f>
-        <v>0</v>
-      </c>
-      <c r="D140" t="e">
+        <v>track</v>
+      </c>
+      <c r="D140">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E140" t="e">
+        <v>95</v>
+      </c>
+      <c r="E140">
         <f>VLOOKUP($A140,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F140" t="e">
+        <v>70</v>
+      </c>
+      <c r="F140">
         <f>VLOOKUP($B140,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G140" t="e">
+        <v>5</v>
+      </c>
+      <c r="G140">
         <f>VLOOKUP($C140,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H140" t="e">
+        <v>20</v>
+      </c>
+      <c r="H140">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" t="str">
         <f>quietness!A141</f>
-        <v>0</v>
-      </c>
-      <c r="B141">
+        <v>tertiary_link</v>
+      </c>
+      <c r="B141" t="str">
         <f>quietness!B141</f>
-        <v>0</v>
-      </c>
-      <c r="C141">
+        <v>no</v>
+      </c>
+      <c r="C141" t="str">
         <f>quietness!C141</f>
-        <v>0</v>
-      </c>
-      <c r="D141" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D141">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E141" t="e">
+        <v>65</v>
+      </c>
+      <c r="E141">
         <f>VLOOKUP($A141,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F141" t="e">
+        <v>60</v>
+      </c>
+      <c r="F141">
         <f>VLOOKUP($B141,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G141" t="e">
+        <v>0</v>
+      </c>
+      <c r="G141">
         <f>VLOOKUP($C141,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H141" t="e">
+        <v>5</v>
+      </c>
+      <c r="H141">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" t="str">
         <f>quietness!A142</f>
-        <v>0</v>
-      </c>
-      <c r="B142">
+        <v>secondary_link</v>
+      </c>
+      <c r="B142" t="str">
         <f>quietness!B142</f>
-        <v>0</v>
-      </c>
-      <c r="C142">
+        <v>no</v>
+      </c>
+      <c r="C142" t="str">
         <f>quietness!C142</f>
-        <v>0</v>
-      </c>
-      <c r="D142" t="e">
+        <v>track</v>
+      </c>
+      <c r="D142">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E142" t="e">
+        <v>70</v>
+      </c>
+      <c r="E142">
         <f>VLOOKUP($A142,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F142" t="e">
+        <v>50</v>
+      </c>
+      <c r="F142">
         <f>VLOOKUP($B142,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G142" t="e">
+        <v>0</v>
+      </c>
+      <c r="G142">
         <f>VLOOKUP($C142,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H142" t="e">
+        <v>20</v>
+      </c>
+      <c r="H142">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" t="str">
         <f>quietness!A143</f>
-        <v>0</v>
-      </c>
-      <c r="B143">
+        <v>tertiary_link</v>
+      </c>
+      <c r="B143" t="str">
         <f>quietness!B143</f>
-        <v>0</v>
-      </c>
-      <c r="C143">
+        <v>no</v>
+      </c>
+      <c r="C143" t="str">
         <f>quietness!C143</f>
-        <v>0</v>
-      </c>
-      <c r="D143" t="e">
+        <v>track</v>
+      </c>
+      <c r="D143">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E143" t="e">
+        <v>80</v>
+      </c>
+      <c r="E143">
         <f>VLOOKUP($A143,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F143" t="e">
+        <v>60</v>
+      </c>
+      <c r="F143">
         <f>VLOOKUP($B143,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G143" t="e">
+        <v>0</v>
+      </c>
+      <c r="G143">
         <f>VLOOKUP($C143,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H143" t="e">
+        <v>20</v>
+      </c>
+      <c r="H143">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" t="str">
         <f>quietness!A144</f>
-        <v>0</v>
-      </c>
-      <c r="B144">
+        <v>secondary_link</v>
+      </c>
+      <c r="B144" t="str">
         <f>quietness!B144</f>
-        <v>0</v>
-      </c>
-      <c r="C144">
+        <v>track</v>
+      </c>
+      <c r="C144" t="str">
         <f>quietness!C144</f>
-        <v>0</v>
-      </c>
-      <c r="D144" t="e">
+        <v>no</v>
+      </c>
+      <c r="D144">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E144" t="e">
+        <v>70</v>
+      </c>
+      <c r="E144">
         <f>VLOOKUP($A144,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F144" t="e">
+        <v>50</v>
+      </c>
+      <c r="F144">
         <f>VLOOKUP($B144,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G144" t="e">
+        <v>20</v>
+      </c>
+      <c r="G144">
         <f>VLOOKUP($C144,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H144" t="e">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" t="str">
         <f>quietness!A145</f>
-        <v>0</v>
-      </c>
-      <c r="B145">
+        <v>tertiary_link</v>
+      </c>
+      <c r="B145" t="str">
         <f>quietness!B145</f>
-        <v>0</v>
-      </c>
-      <c r="C145">
+        <v>track</v>
+      </c>
+      <c r="C145" t="str">
         <f>quietness!C145</f>
-        <v>0</v>
-      </c>
-      <c r="D145" t="e">
+        <v>no</v>
+      </c>
+      <c r="D145">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E145" t="e">
+        <v>80</v>
+      </c>
+      <c r="E145">
         <f>VLOOKUP($A145,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F145" t="e">
+        <v>60</v>
+      </c>
+      <c r="F145">
         <f>VLOOKUP($B145,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G145" t="e">
+        <v>20</v>
+      </c>
+      <c r="G145">
         <f>VLOOKUP($C145,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H145" t="e">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">

--- a/input-data/quietness_score_maker.xlsx
+++ b/input-data/quietness_score_maker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="38">
   <si>
     <t>highway</t>
   </si>
@@ -935,7 +935,7 @@
   <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+      <selection activeCell="A153" sqref="A153:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3122,51 +3122,123 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D146" t="e">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146">
         <f>Generator!$D146</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D147" t="e">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147">
         <f>Generator!$D147</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D148" t="e">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148">
         <f>Generator!$D148</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D149" t="e">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
         <f>Generator!$D149</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D150" t="e">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150">
         <f>Generator!$D150</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D151" t="e">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151">
         <f>Generator!$D151</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D152" t="e">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152">
         <f>Generator!$D152</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D153" t="e">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153">
         <f>Generator!$D153</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -9954,275 +10026,275 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" t="str">
         <f>quietness!A146</f>
-        <v>0</v>
-      </c>
-      <c r="B146">
+        <v>secondary</v>
+      </c>
+      <c r="B146" t="str">
         <f>quietness!B146</f>
-        <v>0</v>
-      </c>
-      <c r="C146">
+        <v>lane</v>
+      </c>
+      <c r="C146" t="str">
         <f>quietness!C146</f>
-        <v>0</v>
-      </c>
-      <c r="D146" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D146">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E146" t="e">
+        <v>65</v>
+      </c>
+      <c r="E146">
         <f>VLOOKUP($A146,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F146" t="e">
+        <v>50</v>
+      </c>
+      <c r="F146">
         <f>VLOOKUP($B146,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G146" t="e">
+        <v>10</v>
+      </c>
+      <c r="G146">
         <f>VLOOKUP($C146,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H146" t="e">
+        <v>5</v>
+      </c>
+      <c r="H146">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" t="str">
         <f>quietness!A147</f>
-        <v>0</v>
-      </c>
-      <c r="B147">
+        <v>primary_link</v>
+      </c>
+      <c r="B147" t="str">
         <f>quietness!B147</f>
-        <v>0</v>
-      </c>
-      <c r="C147">
+        <v>no</v>
+      </c>
+      <c r="C147" t="str">
         <f>quietness!C147</f>
-        <v>0</v>
-      </c>
-      <c r="D147" t="e">
+        <v>lane</v>
+      </c>
+      <c r="D147">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E147" t="e">
+        <v>35</v>
+      </c>
+      <c r="E147">
         <f>VLOOKUP($A147,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F147" t="e">
+        <v>25</v>
+      </c>
+      <c r="F147">
         <f>VLOOKUP($B147,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G147" t="e">
+        <v>0</v>
+      </c>
+      <c r="G147">
         <f>VLOOKUP($C147,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H147" t="e">
+        <v>10</v>
+      </c>
+      <c r="H147">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" t="str">
         <f>quietness!A148</f>
-        <v>0</v>
-      </c>
-      <c r="B148">
+        <v>residential</v>
+      </c>
+      <c r="B148" t="str">
         <f>quietness!B148</f>
-        <v>0</v>
-      </c>
-      <c r="C148">
+        <v>share_busway</v>
+      </c>
+      <c r="C148" t="str">
         <f>quietness!C148</f>
-        <v>0</v>
-      </c>
-      <c r="D148" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D148">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E148" t="e">
+        <v>90</v>
+      </c>
+      <c r="E148">
         <f>VLOOKUP($A148,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F148" t="e">
+        <v>80</v>
+      </c>
+      <c r="F148">
         <f>VLOOKUP($B148,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G148" t="e">
+        <v>5</v>
+      </c>
+      <c r="G148">
         <f>VLOOKUP($C148,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H148" t="e">
+        <v>5</v>
+      </c>
+      <c r="H148">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" t="str">
         <f>quietness!A149</f>
-        <v>0</v>
-      </c>
-      <c r="B149">
+        <v>road</v>
+      </c>
+      <c r="B149" t="str">
         <f>quietness!B149</f>
-        <v>0</v>
-      </c>
-      <c r="C149">
+        <v>track</v>
+      </c>
+      <c r="C149" t="str">
         <f>quietness!C149</f>
-        <v>0</v>
-      </c>
-      <c r="D149" t="e">
+        <v>track</v>
+      </c>
+      <c r="D149">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E149" t="e">
+        <v>100</v>
+      </c>
+      <c r="E149">
         <f>VLOOKUP($A149,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F149" t="e">
+        <v>70</v>
+      </c>
+      <c r="F149">
         <f>VLOOKUP($B149,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G149" t="e">
+        <v>20</v>
+      </c>
+      <c r="G149">
         <f>VLOOKUP($C149,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H149" t="e">
+        <v>20</v>
+      </c>
+      <c r="H149">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" t="str">
         <f>quietness!A150</f>
-        <v>0</v>
-      </c>
-      <c r="B150">
+        <v>service</v>
+      </c>
+      <c r="B150" t="str">
         <f>quietness!B150</f>
-        <v>0</v>
-      </c>
-      <c r="C150">
+        <v>share_busway</v>
+      </c>
+      <c r="C150" t="str">
         <f>quietness!C150</f>
-        <v>0</v>
-      </c>
-      <c r="D150" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D150">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E150" t="e">
+        <v>80</v>
+      </c>
+      <c r="E150">
         <f>VLOOKUP($A150,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F150" t="e">
+        <v>70</v>
+      </c>
+      <c r="F150">
         <f>VLOOKUP($B150,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G150" t="e">
+        <v>5</v>
+      </c>
+      <c r="G150">
         <f>VLOOKUP($C150,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H150" t="e">
+        <v>5</v>
+      </c>
+      <c r="H150">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" t="str">
         <f>quietness!A151</f>
-        <v>0</v>
-      </c>
-      <c r="B151">
+        <v>living_street</v>
+      </c>
+      <c r="B151" t="str">
         <f>quietness!B151</f>
-        <v>0</v>
-      </c>
-      <c r="C151">
+        <v>lane</v>
+      </c>
+      <c r="C151" t="str">
         <f>quietness!C151</f>
-        <v>0</v>
-      </c>
-      <c r="D151" t="e">
+        <v>no</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E151" t="e">
+        <v>90</v>
+      </c>
+      <c r="E151">
         <f>VLOOKUP($A151,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F151" t="e">
+        <v>80</v>
+      </c>
+      <c r="F151">
         <f>VLOOKUP($B151,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G151" t="e">
+        <v>10</v>
+      </c>
+      <c r="G151">
         <f>VLOOKUP($C151,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H151" t="e">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" t="str">
         <f>quietness!A152</f>
-        <v>0</v>
-      </c>
-      <c r="B152">
+        <v>motorway</v>
+      </c>
+      <c r="B152" t="str">
         <f>quietness!B152</f>
-        <v>0</v>
-      </c>
-      <c r="C152">
+        <v>share_busway</v>
+      </c>
+      <c r="C152" t="str">
         <f>quietness!C152</f>
-        <v>0</v>
-      </c>
-      <c r="D152" t="e">
+        <v>no</v>
+      </c>
+      <c r="D152">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E152" t="e">
+        <v>15</v>
+      </c>
+      <c r="E152">
         <f>VLOOKUP($A152,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F152" t="e">
+        <v>10</v>
+      </c>
+      <c r="F152">
         <f>VLOOKUP($B152,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G152" t="e">
+        <v>5</v>
+      </c>
+      <c r="G152">
         <f>VLOOKUP($C152,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H152" t="e">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" t="str">
         <f>quietness!A153</f>
-        <v>0</v>
-      </c>
-      <c r="B153">
+        <v>unclassified</v>
+      </c>
+      <c r="B153" t="str">
         <f>quietness!B153</f>
-        <v>0</v>
-      </c>
-      <c r="C153">
+        <v>lane</v>
+      </c>
+      <c r="C153" t="str">
         <f>quietness!C153</f>
-        <v>0</v>
-      </c>
-      <c r="D153" t="e">
+        <v>share_busway</v>
+      </c>
+      <c r="D153">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E153" t="e">
+        <v>85</v>
+      </c>
+      <c r="E153">
         <f>VLOOKUP($A153,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F153" t="e">
+        <v>70</v>
+      </c>
+      <c r="F153">
         <f>VLOOKUP($B153,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G153" t="e">
+        <v>10</v>
+      </c>
+      <c r="G153">
         <f>VLOOKUP($C153,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H153" t="e">
+        <v>5</v>
+      </c>
+      <c r="H153">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">

--- a/input-data/quietness_score_maker.xlsx
+++ b/input-data/quietness_score_maker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="38">
   <si>
     <t>highway</t>
   </si>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:C153"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3242,9 +3242,18 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D154" t="e">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154">
         <f>Generator!$D154</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -10298,37 +10307,37 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" t="str">
         <f>quietness!A154</f>
-        <v>0</v>
-      </c>
-      <c r="B154">
+        <v>unclassified</v>
+      </c>
+      <c r="B154" t="str">
         <f>quietness!B154</f>
-        <v>0</v>
-      </c>
-      <c r="C154">
+        <v>track</v>
+      </c>
+      <c r="C154" t="str">
         <f>quietness!C154</f>
-        <v>0</v>
-      </c>
-      <c r="D154" t="e">
+        <v>lane</v>
+      </c>
+      <c r="D154">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E154" t="e">
+        <v>100</v>
+      </c>
+      <c r="E154">
         <f>VLOOKUP($A154,Rules!$A$4:$B$50,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F154" t="e">
+        <v>70</v>
+      </c>
+      <c r="F154">
         <f>VLOOKUP($B154,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G154" t="e">
+        <v>20</v>
+      </c>
+      <c r="G154">
         <f>VLOOKUP($C154,Rules!$D$4:$E$10,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H154" t="e">
+        <v>10</v>
+      </c>
+      <c r="H154">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
